--- a/exposure_monitoring/data/basic_info.xlsx
+++ b/exposure_monitoring/data/basic_info.xlsx
@@ -5,18 +5,19 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86133\Desktop\研二实习\数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86133\Python Scripts\研二\鸣石实习\exposure_monitoring\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D457CDC-4F17-4175-B92E-85E5589B6362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CC57DA-EC5A-47FB-8D14-0677EE2F2562}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016" tabRatio="733" activeTab="2" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
+    <workbookView xWindow="0" yWindow="1416" windowWidth="18792" windowHeight="8436" tabRatio="733" xr2:uid="{855E00D3-25C3-4BB2-A61F-0D95BB1AF006}"/>
   </bookViews>
   <sheets>
     <sheet name="acctinfo" sheetId="8" r:id="rId1"/>
     <sheet name="prdinfo" sheetId="2" r:id="rId2"/>
     <sheet name="broker_info" sheetId="4" r:id="rId3"/>
     <sheet name="trdplan_expression" sheetId="12" r:id="rId4"/>
+    <sheet name="改动地方" sheetId="13" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">acctinfo!$A$1:$R$238</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2892" uniqueCount="1792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="1790">
   <si>
     <t>鸣石量化投资2期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4705,14 +4706,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(//101.133.226.12/trddata/huat_matic_tsi/ALL_FUND.&lt;YYYYMMDD&gt;.csv,//101.133.226.12/trddata/huat_matic_tsi/ALL_POSITION.&lt;YYYYMMDD&gt;.csv,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(//101.133.226.12/trddata/huat_matic_tsi/ALL_RZRQ_FUND.&lt;YYYYMMDD&gt;.csv,//101.133.226.12/trddata/huat_matic_tsi/ALL_RZRQ_POSITION.&lt;YYYYMMDD&gt;.csv,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>960000039239</t>
   </si>
   <si>
@@ -5818,14 +5811,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(//101.133.226.12/trddata/zxjt_xtpb/cash_account_fund.csv,//101.133.226.12/trddata/zxjt_xtpb/cash_account_position.csv,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(//101.133.226.12/trddata/zxjt_xtpb/margin_account_fund.csv,//101.133.226.12/trddata/zxjt_xtpb/margin_account_position.csv,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>715</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5994,14 +5979,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(//101.133.226.12/trddata/gtja_pluto/spot_capital_YYYYMMDD.csv,//101.133.226.12/trddata/gtja_pluto/spot_position_YYYYMMDD.csv,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(//101.133.226.12/trddata/gtja_pluto/rzrq_capital_YYYYMMDD.csv,//101.133.226.12/trddata/gtja_pluto/rzrq_position_YYYYMMDD.csv,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>msjx2qax4157</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6680,18 +6657,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(//101.133.226.12/trddata/gs_htpb/ZJ_STOCK_YYYYMMDD.csv,//101.133.226.12/trddata/gs_htpb/CC_STOCK_YYYYMMDD.csv,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{'security':{'huat':0.6314,'gs':0.3686}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(//101.133.226.12/ax_jzpb/cash_account_fund_YYYYMMDD.csv,//101.133.226.12/ax_jzpb/cash_account_position_YYYYMMDD.csv,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(//101.133.226.12/trddata/hf_xtpb/cash_account_fund.csv,//101.133.226.12/trddata/hf_xtpb/cash_account_position.csv,)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6724,18 +6693,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(//101.133.226.12/trddata/zhaos_xtpb/cash_account_fund.csv,//101.133.226.12/trddata/zhaos_xtpb/cash_account_position.csv,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(//101.133.226.12/trddata/zhaos_xtpb/margin_account_fund.csv,//101.133.226.12/trddata/zhaos_xtpb/margin_account_position.csv,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(//101.133.226.12/trddata/zhaos_xtpb/margin_account_fund.csv,//101.133.226.12/trddata/zhaos_xtpb/margin_account_position.csv,805_m_zhaos_5206_secliability.txt)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zhaos_xtpb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6856,10 +6813,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(//101.133.226.12/trddata/hait_xtpb/margin_account_fund.csv,//101.133.226.12/trddata/hait_xtpb/margin_account_position.csv,//101.133.226.12/trddata/hait_xtpb/margin_account_security_loan_contract.csv)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>625</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7160,6 +7113,46 @@
   </si>
   <si>
     <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(//101.133.226.12/trddata/hait/hait_xtpb/margin_account_fund.csv,//101.133.226.12/trddata/hait/hait_xtpb/margin_account_holding.csv,//101.133.226.12/trddata/hait/hait_xtpb/margin_account_order.csv,//101.133.226.12/trddata/hait/hait_xtpb/margin_account_security_loan.csv)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(//101.133.226.12/trddata/zxjt_xtpb/cash_account_fund.csv,//101.133.226.12/trddata/zxjt_xtpb/cash_account_position.csv,//101.133.226.12/trddata/zxjt_xtpb/cash_account_deal.csv,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(//101.133.226.12/trddata/zxjt_xtpb/margin_account_fund.csv,//101.133.226.12/trddata/zxjt_xtpb/margin_account_position.csv,//101.133.226.12/trddata/zxjt_xtpb/margin_account_deal.csv,//101.133.226.12/trddata/zxjt_xtpb/margin_account_security_loan.csv,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(//101.133.226.12/trddata/zhaos_xtpb/cash_account_fund.csv,//101.133.226.12/trddata/zhaos_xtpb/cash_account_position.csv,//101.133.226.12/trddata/zhaos_xtpb/cash_account_deal.csv)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(//101.133.226.12/trddata/zhaos_xtpb/margin_account_fund.csv,//101.133.226.12/trddata/zhaos_xtpb/margin_account_position.csv,//101.133.226.12/trddata/zhaos_xtpb/margin_account_deal.csv,//101.133.226.12/trddata/zhaos_xtpb/margin_account_security_loan.csv)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(//101.133.226.12/trddata/gs_htpb/ZJ_STOCK_YYYYMMDD.csv,//101.133.226.12/trddata/gs_htpb/CC_STOCK_YYYYMMDD.csv,//101.133.226.12/trddata/gs_htpb/CJ_STOCK_YYYYMMDD.csv,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(//101.133.226.12/trddata/huat_matic_tsi/ALL_FUND.&lt;YYYYMMDD&gt;.csv,//101.133.226.12/trddata/huat_matic_tsi/ALL_POSITION.&lt;YYYYMMDD&gt;.csv,//101.133.226.12/trddata/huat_matic_tsi/ALL_ENTRUST.&lt;YYYYMMDD&gt;.csv,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(//101.133.226.12/trddata/huat_matic_tsi/ALL_RZRQ_FUND.&lt;YYYYMMDD&gt;.csv,//101.133.226.12/trddata/huat_matic_tsi/ALL_RZRQ_POSITION.&lt;YYYYMMDD&gt;.csv,//101.133.226.12/trddata/huat_matic_tsi/ALL_RZRQ_ENTRUST.&lt;YYYYMMDD&gt;.csv,//101.133.226.12/trddata/huat_matic_tsi/ALL_RZRQ_COMPACT.&lt;YYYYMMDD&gt;.csv,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(//101.133.226.12/trddata/gtja_pluto/spot_capital_YYYYMMDD.csv,//101.133.226.12/trddata/gtja_pluto/spot_position_YYYYMMDD.csv,//101.133.226.12/trddata/gtja_pluto/spot_order_YYYYMMDD.csv,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(//101.133.226.12/trddata/gtja_pluto/rzrq_capital_YYYYMMDD.csv,//101.133.226.12/trddata/gtja_pluto/rzrq_position_YYYYMMDD.csv,//101.133.226.12/trddata/gtja_pluto/rzrq_order_YYYYMMDD.csv,//101.133.226.12/trddata/gtja_pluto/rzrq_compact_YYYYMMDD.csv,)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7555,14 +7548,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E89EC7F-6807-4E54-B5E1-E4E4E9C6C1B6}">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:S238"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="R240" sqref="R240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7583,7 +7576,7 @@
     <col min="14" max="14" width="18" style="7" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="24.77734375" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" customWidth="1"/>
     <col min="18" max="18" width="117.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7598,7 +7591,7 @@
         <v>272</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1028</v>
@@ -7622,7 +7615,7 @@
         <v>234</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="M1" s="7" t="s">
         <v>235</v>
@@ -7631,7 +7624,7 @@
         <v>580</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="P1" s="7" t="s">
         <v>560</v>
@@ -7644,7 +7637,7 @@
       </c>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>310</v>
       </c>
@@ -7679,10 +7672,10 @@
         <v>307</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>107</v>
       </c>
@@ -7726,7 +7719,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>139</v>
       </c>
@@ -7767,7 +7760,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>390</v>
       </c>
@@ -7808,7 +7801,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>108</v>
       </c>
@@ -7846,7 +7839,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>746</v>
@@ -7855,7 +7848,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>144</v>
       </c>
@@ -7896,7 +7889,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>409</v>
       </c>
@@ -7934,27 +7927,27 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>1757</v>
+        <v>1745</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1758</v>
+        <v>1746</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1759</v>
+        <v>1747</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1760</v>
+        <v>1748</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1761</v>
+        <v>1749</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>1762</v>
+        <v>1750</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>1763</v>
+        <v>1751</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -7969,7 +7962,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>222</v>
@@ -7978,27 +7971,27 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>1315</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>1317</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>1318</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>1319</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>1320</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>1321</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -8016,27 +8009,27 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>1778</v>
+        <v>1766</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1779</v>
+        <v>1767</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1780</v>
+        <v>1768</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>1784</v>
+        <v>1772</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>1781</v>
+        <v>1769</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>1782</v>
+        <v>1770</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>1783</v>
+        <v>1771</v>
       </c>
       <c r="K11" s="3">
         <v>0</v>
@@ -8051,7 +8044,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>222</v>
@@ -8060,27 +8053,27 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>1258</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>1259</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>1261</v>
-      </c>
       <c r="H12" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>1242</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>1253</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>1244</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
@@ -8098,27 +8091,27 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>1254</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>1255</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>1257</v>
-      </c>
       <c r="H13" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>1242</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>1253</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>1244</v>
       </c>
       <c r="K13" s="3">
         <v>0</v>
@@ -8136,51 +8129,51 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>1428</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>1429</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>1419</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="J14" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>1430</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>1431</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>1403</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>1430</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>1405</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>1</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>1432</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>1433</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>415</v>
       </c>
@@ -8218,7 +8211,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>415</v>
       </c>
@@ -8256,7 +8249,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>422</v>
       </c>
@@ -8294,33 +8287,33 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>1705</v>
+        <v>71</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1706</v>
+        <v>350</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1707</v>
+        <v>72</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1708</v>
+        <v>782</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>1709</v>
+        <v>783</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>1710</v>
+        <v>101</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>1711</v>
+        <v>50</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>1712</v>
+        <v>106</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="3">
         <v>1</v>
@@ -8331,17 +8324,14 @@
       <c r="N18" s="7">
         <v>0</v>
       </c>
-      <c r="O18" s="7" t="s">
-        <v>1713</v>
-      </c>
       <c r="Q18" s="1" t="s">
-        <v>1714</v>
+        <v>1452</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>1715</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>426</v>
       </c>
@@ -8379,31 +8369,31 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>1631</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>1637</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>1638</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>1639</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>1637</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>1641</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>1642</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>1643</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -8417,12 +8407,12 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>1002</v>
       </c>
@@ -8432,6 +8422,9 @@
       <c r="C21" s="1" t="s">
         <v>1004</v>
       </c>
+      <c r="D21">
+        <v>3979926</v>
+      </c>
       <c r="G21" s="1" t="s">
         <v>1005</v>
       </c>
@@ -8457,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>747</v>
@@ -8466,30 +8459,30 @@
         <v>752</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>1694</v>
+        <v>1683</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1695</v>
+        <v>1684</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1696</v>
+        <v>1685</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1694</v>
+        <v>1683</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>1704</v>
+        <v>1693</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>1697</v>
+        <v>1686</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>1698</v>
+        <v>1687</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>1699</v>
+        <v>1688</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -8504,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>75</v>
@@ -8513,7 +8506,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>1137</v>
       </c>
@@ -8554,30 +8547,30 @@
         <v>927</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>1686</v>
+        <v>1675</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1687</v>
+        <v>1676</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1688</v>
+        <v>1677</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1686</v>
+        <v>1675</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>1689</v>
+        <v>1678</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>1690</v>
+        <v>1679</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>1691</v>
+        <v>1680</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>1692</v>
+        <v>1681</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -8592,36 +8585,36 @@
         <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>1693</v>
+        <v>1682</v>
       </c>
       <c r="R24" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>1267</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>1269</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>1270</v>
-      </c>
       <c r="H25" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>1242</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>1243</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>1244</v>
       </c>
       <c r="K25" s="3">
         <v>0</v>
@@ -8642,27 +8635,27 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>1331</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>1333</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>1334</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>1335</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>1336</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>1337</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
@@ -8680,30 +8673,30 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>1700</v>
+        <v>1689</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1701</v>
+        <v>1690</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1702</v>
+        <v>1691</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1700</v>
+        <v>1689</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>1703</v>
+        <v>1692</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>1697</v>
+        <v>1686</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>1698</v>
+        <v>1687</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>1699</v>
+        <v>1688</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -8718,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>222</v>
@@ -8727,27 +8720,27 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>1291</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>1292</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="H28" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H28" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>1288</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>1295</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>1290</v>
       </c>
       <c r="K28" s="3">
         <v>0</v>
@@ -8765,7 +8758,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>429</v>
       </c>
@@ -8803,7 +8796,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>432</v>
       </c>
@@ -8841,7 +8834,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>928</v>
       </c>
@@ -8885,7 +8878,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>928</v>
       </c>
@@ -8923,7 +8916,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>222</v>
@@ -8932,7 +8925,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>928</v>
       </c>
@@ -8970,7 +8963,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>928</v>
       </c>
@@ -9011,27 +9004,27 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>1360</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>1361</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="H35" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>1362</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>1363</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>1335</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>1346</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>1364</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
@@ -9049,7 +9042,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>949</v>
       </c>
@@ -9093,12 +9086,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>1023</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>1022</v>
@@ -9132,7 +9125,7 @@
       </c>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>441</v>
       </c>
@@ -9170,7 +9163,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>968</v>
       </c>
@@ -9217,7 +9210,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>968</v>
       </c>
@@ -9264,7 +9257,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>962</v>
       </c>
@@ -9275,7 +9268,7 @@
         <v>963</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>1609</v>
+        <v>1603</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>964</v>
@@ -9314,7 +9307,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>444</v>
       </c>
@@ -9355,48 +9348,54 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>1392</v>
+        <v>81</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1393</v>
+        <v>355</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1394</v>
+        <v>93</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>792</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>1434</v>
+        <v>793</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>1395</v>
+        <v>101</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>1396</v>
+        <v>50</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>1397</v>
+        <v>106</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
       </c>
+      <c r="N43" s="7">
+        <v>0</v>
+      </c>
       <c r="O43" s="7" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>1175</v>
-      </c>
-      <c r="R43" s="6" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1452</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>447</v>
       </c>
@@ -9434,27 +9433,27 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>1196</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>1199</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>1200</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>1201</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>1202</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -9472,7 +9471,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>995</v>
       </c>
@@ -9511,7 +9510,7 @@
       </c>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>450</v>
       </c>
@@ -9552,31 +9551,34 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>1420</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="D48">
+        <v>3982438</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>1421</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="H48" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>1422</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>1420</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>1423</v>
-      </c>
-      <c r="H48" s="1" t="s">
+      <c r="J48" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>1424</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>1405</v>
-      </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
@@ -9590,7 +9592,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="Q48" s="1" t="s">
         <v>747</v>
@@ -9599,7 +9601,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>85</v>
       </c>
@@ -9646,7 +9648,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>284</v>
       </c>
@@ -9694,7 +9696,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>1007</v>
       </c>
@@ -9708,7 +9710,7 @@
         <v>1007</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>999</v>
@@ -9732,16 +9734,16 @@
         <v>0</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="R51" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>456</v>
       </c>
@@ -9782,27 +9784,27 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>1733</v>
+        <v>1721</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1734</v>
+        <v>1722</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1735</v>
+        <v>1723</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1736</v>
+        <v>1724</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>1737</v>
+        <v>1725</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>1738</v>
+        <v>1726</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>1739</v>
+        <v>1727</v>
       </c>
       <c r="K53" s="3">
         <v>0</v>
@@ -9823,7 +9825,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>1014</v>
       </c>
@@ -9861,11 +9863,11 @@
         <v>0</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="Q54" s="1"/>
     </row>
-    <row r="55" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>460</v>
       </c>
@@ -9911,31 +9913,31 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>1645</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="I56" s="1" t="s">
         <v>1647</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="J56" s="1" t="s">
         <v>1648</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>1649</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>1650</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>1651</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>1652</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>1653</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>1654</v>
-      </c>
       <c r="K56" s="3">
         <v>0</v>
       </c>
@@ -9949,11 +9951,11 @@
         <v>0</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="Q56" s="1"/>
     </row>
-    <row r="57" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>464</v>
       </c>
@@ -9997,7 +9999,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>464</v>
       </c>
@@ -10035,27 +10037,27 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>1740</v>
+        <v>1728</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1741</v>
+        <v>1729</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1742</v>
+        <v>1730</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1743</v>
+        <v>1731</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>1737</v>
+        <v>1725</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>1738</v>
+        <v>1726</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>1739</v>
+        <v>1727</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -10076,7 +10078,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>466</v>
       </c>
@@ -10114,33 +10116,33 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>1399</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>1400</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>1401</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="G61" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="I61" s="1" t="s">
         <v>1402</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="J61" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="I61" s="1" t="s">
-        <v>1404</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>1405</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -10154,17 +10156,17 @@
         <v>0</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="P61" s="7"/>
       <c r="Q61" s="1" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="R61" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>470</v>
       </c>
@@ -10202,7 +10204,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>474</v>
       </c>
@@ -10240,7 +10242,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>477</v>
       </c>
@@ -10278,30 +10280,30 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>1716</v>
+        <v>1704</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1717</v>
+        <v>1705</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1718</v>
+        <v>1706</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>1716</v>
+        <v>1704</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>1719</v>
+        <v>1707</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>1720</v>
+        <v>1708</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>1721</v>
+        <v>1709</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>1722</v>
+        <v>1710</v>
       </c>
       <c r="K65" s="3">
         <v>0</v>
@@ -10316,7 +10318,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="Q65" s="1" t="s">
         <v>75</v>
@@ -10325,7 +10327,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>480</v>
       </c>
@@ -10369,30 +10371,30 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>1284</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>1286</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="J67" s="1" t="s">
         <v>1288</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>1289</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>1290</v>
       </c>
       <c r="K67" s="3">
         <v>0</v>
@@ -10413,7 +10415,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>481</v>
       </c>
@@ -10457,32 +10459,32 @@
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>1785</v>
+        <v>1773</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1786</v>
+        <v>1774</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1787</v>
+        <v>1775</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>1785</v>
+        <v>1773</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>1788</v>
+        <v>1776</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>1789</v>
+        <v>1777</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>1790</v>
+        <v>1778</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>1791</v>
+        <v>1779</v>
       </c>
       <c r="K69" s="3">
         <v>0</v>
@@ -10497,7 +10499,7 @@
         <v>0</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="P69" s="7"/>
       <c r="Q69" s="1" t="s">
@@ -10507,7 +10509,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>581</v>
       </c>
@@ -10545,7 +10547,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>488</v>
       </c>
@@ -10583,7 +10585,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>492</v>
       </c>
@@ -10621,28 +10623,28 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="F73" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="H73" s="1" t="s">
         <v>1476</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="I73" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="J73" s="1" t="s">
         <v>1478</v>
       </c>
-      <c r="H73" s="1" t="s">
-        <v>1480</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>1481</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>1482</v>
-      </c>
       <c r="K73" s="3">
         <v>0</v>
       </c>
@@ -10653,31 +10655,31 @@
         <v>0</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="Q73" s="1"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="F74" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="I74" s="1" t="s">
         <v>1477</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>1480</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>1481</v>
-      </c>
       <c r="J74" s="1" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="K74" s="3">
         <v>0</v>
@@ -10689,11 +10691,11 @@
         <v>0</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="Q74" s="1"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>321</v>
       </c>
@@ -10704,7 +10706,7 @@
         <v>67</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1610</v>
+        <v>1604</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>776</v>
@@ -10740,7 +10742,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>146</v>
       </c>
@@ -10781,7 +10783,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>69</v>
       </c>
@@ -10792,7 +10794,7 @@
         <v>70</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>1611</v>
+        <v>1605</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>778</v>
@@ -10828,7 +10830,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>149</v>
       </c>
@@ -10869,65 +10871,68 @@
         <v>357</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>1447</v>
+        <v>1453</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1448</v>
+        <v>1454</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1449</v>
+        <v>1455</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>1450</v>
+        <v>1456</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>1451</v>
+        <v>1457</v>
       </c>
       <c r="J79" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="K79" s="3">
+        <v>1</v>
+      </c>
+      <c r="L79" s="3">
+        <v>0</v>
+      </c>
+      <c r="M79" s="7">
+        <v>0</v>
+      </c>
+      <c r="N79" s="7">
+        <v>0</v>
+      </c>
+      <c r="O79" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="Q79" s="1" t="s">
         <v>1452</v>
       </c>
-      <c r="K79" s="3">
-        <v>0</v>
-      </c>
-      <c r="L79" s="3">
-        <v>1</v>
-      </c>
-      <c r="M79" s="7">
-        <v>0</v>
-      </c>
-      <c r="N79" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="1" t="s">
-        <v>1453</v>
-      </c>
-      <c r="R79" s="6" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R79" s="1" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>1372</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="E80" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="I80" s="1" t="s">
         <v>1373</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>1374</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>1387</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>1335</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>1375</v>
-      </c>
       <c r="J80" s="1" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K80" s="3">
         <v>0</v>
@@ -10948,7 +10953,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>78</v>
       </c>
@@ -10959,7 +10964,7 @@
         <v>90</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1612</v>
+        <v>1606</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
@@ -10998,7 +11003,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>152</v>
       </c>
@@ -11039,30 +11044,24 @@
         <v>357</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>71</v>
+        <v>1533</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>350</v>
+        <v>1519</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>783</v>
+        <v>1534</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>101</v>
+        <v>1536</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>50</v>
+        <v>1538</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>106</v>
+        <v>1539</v>
       </c>
       <c r="K83" s="3">
         <v>1</v>
@@ -11077,13 +11076,13 @@
         <v>0</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>333</v>
       </c>
@@ -11118,10 +11117,10 @@
         <v>292</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>154</v>
       </c>
@@ -11162,7 +11161,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>79</v>
       </c>
@@ -11173,7 +11172,7 @@
         <v>91</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1613</v>
+        <v>1607</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>784</v>
@@ -11209,7 +11208,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>157</v>
       </c>
@@ -11250,7 +11249,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>80</v>
       </c>
@@ -11261,7 +11260,7 @@
         <v>92</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1614</v>
+        <v>1608</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>786</v>
@@ -11297,7 +11296,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>1148</v>
       </c>
@@ -11335,7 +11334,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>159</v>
       </c>
@@ -11376,27 +11375,27 @@
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>1357</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>1358</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>1359</v>
-      </c>
       <c r="E91" s="1" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="H91" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="J91" s="1" t="s">
         <v>1335</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>1351</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>1337</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -11417,7 +11416,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>73</v>
       </c>
@@ -11428,7 +11427,7 @@
         <v>74</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>1615</v>
+        <v>1609</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>788</v>
@@ -11464,33 +11463,33 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>1557</v>
+        <v>1551</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="I93" s="1" t="s">
         <v>1558</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>1560</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>1616</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>1731</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>1732</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>1562</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>1564</v>
-      </c>
       <c r="J93" s="1" t="s">
-        <v>1565</v>
+        <v>1559</v>
       </c>
       <c r="K93" s="3">
         <v>1</v>
@@ -11508,30 +11507,30 @@
         <v>1132</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="H94" s="1" t="s">
         <v>1557</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="I94" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="J94" s="1" t="s">
         <v>1559</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>1561</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>1618</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>1563</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>1564</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>1565</v>
       </c>
       <c r="K94" s="3">
         <v>1</v>
@@ -11552,7 +11551,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>397</v>
       </c>
@@ -11563,7 +11562,7 @@
         <v>399</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>1617</v>
+        <v>1611</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>790</v>
@@ -11599,7 +11598,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>397</v>
       </c>
@@ -11640,95 +11639,91 @@
         <v>406</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>81</v>
+        <v>1533</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>355</v>
+        <v>1520</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>793</v>
+        <v>1535</v>
       </c>
       <c r="H97" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="K97" s="3">
+        <v>1</v>
+      </c>
+      <c r="L97" s="3">
+        <v>1</v>
+      </c>
+      <c r="M97" s="7">
+        <v>0</v>
+      </c>
+      <c r="N97" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="R97" s="1" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I97" s="1" t="s">
+      <c r="I98" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J97" s="1" t="s">
+      <c r="J98" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K97" s="3">
-        <v>1</v>
-      </c>
-      <c r="L97" s="3">
-        <v>1</v>
-      </c>
-      <c r="M97" s="7">
-        <v>0</v>
-      </c>
-      <c r="N97" s="7">
-        <v>0</v>
-      </c>
-      <c r="O97" s="7" t="s">
-        <v>1391</v>
-      </c>
-      <c r="Q97" s="1" t="s">
-        <v>1454</v>
-      </c>
-      <c r="R97" s="1" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>1457</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>1458</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>1459</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>1460</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>1462</v>
-      </c>
       <c r="K98" s="3">
-        <v>0</v>
-      </c>
-      <c r="L98" s="3">
-        <v>0</v>
-      </c>
-      <c r="M98" s="7">
-        <v>0</v>
-      </c>
-      <c r="N98" s="7">
-        <v>0</v>
-      </c>
-      <c r="O98" s="7" t="s">
-        <v>1463</v>
+        <v>1</v>
+      </c>
+      <c r="L98" s="5">
+        <v>0</v>
+      </c>
+      <c r="M98" s="8">
+        <v>0</v>
+      </c>
+      <c r="N98" s="8">
+        <v>0</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c r="P98" s="8" t="s">
+        <v>561</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>161</v>
       </c>
@@ -11769,7 +11764,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>194</v>
       </c>
@@ -11807,7 +11802,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>822</v>
       </c>
@@ -11851,7 +11846,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>195</v>
       </c>
@@ -11892,31 +11887,31 @@
         <v>75</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>1406</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="F103" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="G103" s="1" t="s">
         <v>1407</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="H103" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="I103" s="1" t="s">
         <v>1408</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>1406</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>1409</v>
-      </c>
-      <c r="H103" s="1" t="s">
+      <c r="J103" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="I103" s="1" t="s">
-        <v>1410</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>1405</v>
-      </c>
       <c r="K103" s="3">
         <v>0</v>
       </c>
@@ -11930,100 +11925,106 @@
         <v>0</v>
       </c>
       <c r="O103" s="7" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="Q103" s="1"/>
       <c r="R103"/>
     </row>
-    <row r="104" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>821</v>
+    <row r="104" spans="1:18" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="K104" s="3">
         <v>1</v>
       </c>
-      <c r="L104" s="3">
-        <v>1</v>
-      </c>
-      <c r="M104" s="7">
-        <v>0</v>
-      </c>
-      <c r="N104" s="7">
-        <v>0</v>
-      </c>
-      <c r="P104" s="7" t="s">
-        <v>835</v>
+      <c r="L104" s="5">
+        <v>0</v>
+      </c>
+      <c r="M104" s="8">
+        <v>1</v>
+      </c>
+      <c r="N104" s="8">
+        <v>0</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c r="P104" s="8" t="s">
+        <v>561</v>
       </c>
       <c r="Q104" s="1" t="s">
-        <v>1685</v>
+        <v>1452</v>
       </c>
       <c r="R104" s="1" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>830</v>
+        <v>87</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>836</v>
+        <v>324</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>837</v>
+        <v>96</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>833</v>
+        <v>755</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>838</v>
+        <v>761</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>839</v>
+        <v>101</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>834</v>
+        <v>50</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>821</v>
+        <v>106</v>
       </c>
       <c r="K105" s="3">
         <v>1</v>
       </c>
       <c r="L105" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M105" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N105" s="7">
         <v>0</v>
       </c>
-      <c r="P105" s="7" t="s">
-        <v>835</v>
-      </c>
       <c r="Q105" s="1" t="s">
-        <v>1685</v>
+        <v>1452</v>
       </c>
       <c r="R105" s="1" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>196</v>
       </c>
@@ -12071,7 +12072,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>500</v>
       </c>
@@ -12115,27 +12116,27 @@
         <v>75</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>1262</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>1263</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="H108" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I108" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>1265</v>
-      </c>
-      <c r="H108" s="1" t="s">
+      <c r="J108" s="1" t="s">
         <v>1242</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>1244</v>
       </c>
       <c r="K108" s="3">
         <v>0</v>
@@ -12153,30 +12154,30 @@
         <v>75</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>902</v>
+        <v>325</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>212</v>
+        <v>97</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>896</v>
+        <v>756</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>903</v>
+        <v>762</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>202</v>
+        <v>102</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>203</v>
+        <v>106</v>
       </c>
       <c r="K109" s="3">
         <v>1</v>
@@ -12190,40 +12191,43 @@
       <c r="N109" s="7">
         <v>0</v>
       </c>
-      <c r="O109" s="7" t="s">
-        <v>1391</v>
-      </c>
       <c r="Q109" s="1" t="s">
-        <v>1175</v>
-      </c>
-      <c r="R109" s="6" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1452</v>
+      </c>
+      <c r="R109" s="1" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>1527</v>
+        <v>1497</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1528</v>
+        <v>1499</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1529</v>
+        <v>1498</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>1500</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>1530</v>
+        <v>1501</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>1531</v>
+        <v>1502</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>1532</v>
+        <v>1503</v>
       </c>
       <c r="K110" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L110" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M110" s="7">
         <v>0</v>
@@ -12232,13 +12236,13 @@
         <v>0</v>
       </c>
       <c r="Q110" s="1" t="s">
-        <v>1175</v>
-      </c>
-      <c r="R110" s="6" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1452</v>
+      </c>
+      <c r="R110" s="1" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>197</v>
       </c>
@@ -12279,30 +12283,24 @@
         <v>75</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>1662</v>
+        <v>1497</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1663</v>
+        <v>1504</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1664</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>1666</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>1665</v>
+        <v>1505</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>1667</v>
+        <v>1506</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>1668</v>
+        <v>1502</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>1669</v>
+        <v>1507</v>
       </c>
       <c r="K112" s="3">
         <v>1</v>
@@ -12314,45 +12312,39 @@
         <v>0</v>
       </c>
       <c r="N112" s="7">
-        <v>0</v>
-      </c>
-      <c r="P112" s="7" t="s">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="Q112" s="1" t="s">
-        <v>1670</v>
-      </c>
-      <c r="R112" t="s">
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1452</v>
+      </c>
+      <c r="R112" s="1" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>198</v>
+        <v>1508</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>910</v>
+        <v>1509</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>1162</v>
+        <v>1510</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>202</v>
+        <v>1501</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>204</v>
+        <v>1502</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>203</v>
+        <v>1507</v>
       </c>
       <c r="K113" s="3">
         <v>1</v>
       </c>
       <c r="L113" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M113" s="7">
         <v>0</v>
@@ -12360,72 +12352,60 @@
       <c r="N113" s="7">
         <v>0</v>
       </c>
-      <c r="P113" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="Q113" s="1" t="s">
-        <v>1175</v>
-      </c>
-      <c r="R113" s="6" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1452</v>
+      </c>
+      <c r="R113" s="1" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>1231</v>
+        <v>1508</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1232</v>
+        <v>1511</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1233</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>1620</v>
-      </c>
-      <c r="G114" t="s">
-        <v>1619</v>
+        <v>1512</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>1234</v>
+        <v>1506</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>1235</v>
+        <v>1502</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>1236</v>
+        <v>1507</v>
       </c>
       <c r="K114" s="3">
         <v>1</v>
       </c>
       <c r="L114" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M114" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N114" s="7">
         <v>0</v>
       </c>
-      <c r="P114" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="Q114" s="1" t="s">
-        <v>1175</v>
-      </c>
-      <c r="R114" s="6" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1452</v>
+      </c>
+      <c r="R114" s="1" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>1156</v>
@@ -12458,27 +12438,27 @@
         <v>75</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>216</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="H116" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="J116" s="1" t="s">
         <v>1335</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>1356</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>1337</v>
       </c>
       <c r="K116" s="3">
         <v>0</v>
@@ -12499,7 +12479,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>840</v>
       </c>
@@ -12537,7 +12517,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>840</v>
       </c>
@@ -12581,7 +12561,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>199</v>
       </c>
@@ -12622,27 +12602,27 @@
         <v>75</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="E120" s="1" t="s">
         <v>1367</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="H120" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="I120" s="1" t="s">
         <v>1368</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="J120" s="1" t="s">
         <v>1369</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>1335</v>
-      </c>
-      <c r="I120" s="1" t="s">
-        <v>1370</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>1371</v>
       </c>
       <c r="K120" s="3">
         <v>0</v>
@@ -12663,24 +12643,24 @@
         <v>75</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>852</v>
+        <v>1513</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>853</v>
+        <v>1514</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>854</v>
+        <v>1515</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>848</v>
+        <v>1501</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>856</v>
+        <v>1502</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>850</v>
+        <v>1507</v>
       </c>
       <c r="K121" s="3">
         <v>1</v>
@@ -12695,36 +12675,33 @@
         <v>0</v>
       </c>
       <c r="Q121" s="1" t="s">
-        <v>1175</v>
-      </c>
-      <c r="R121" s="6" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1452</v>
+      </c>
+      <c r="R121" s="1" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>852</v>
+        <v>1513</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>857</v>
+        <v>1516</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>852</v>
+        <v>1517</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>855</v>
+        <v>1518</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>858</v>
+        <v>1506</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>856</v>
+        <v>1502</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>850</v>
+        <v>1507</v>
       </c>
       <c r="K122" s="3">
         <v>1</v>
@@ -12739,13 +12716,13 @@
         <v>0</v>
       </c>
       <c r="Q122" s="1" t="s">
-        <v>1175</v>
-      </c>
-      <c r="R122" s="6" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1452</v>
+      </c>
+      <c r="R122" s="1" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>617</v>
       </c>
@@ -12786,7 +12763,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>200</v>
       </c>
@@ -12830,7 +12807,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>200</v>
       </c>
@@ -12868,7 +12845,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="126" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>200</v>
       </c>
@@ -12914,80 +12891,77 @@
         <v>75</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>201</v>
+        <v>830</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>864</v>
+        <v>831</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>868</v>
+        <v>832</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>202</v>
+        <v>820</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>204</v>
+        <v>834</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>203</v>
+        <v>821</v>
       </c>
       <c r="K127" s="3">
         <v>1</v>
       </c>
       <c r="L127" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M127" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N127" s="7">
         <v>0</v>
       </c>
+      <c r="P127" s="7" t="s">
+        <v>835</v>
+      </c>
       <c r="Q127" s="1" t="s">
-        <v>1175</v>
-      </c>
-      <c r="R127" s="6" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1674</v>
+      </c>
+      <c r="R127" s="1" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>201</v>
+        <v>830</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>865</v>
+        <v>836</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>221</v>
+        <v>837</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>867</v>
+        <v>833</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>869</v>
+        <v>838</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>207</v>
+        <v>839</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>204</v>
+        <v>834</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>203</v>
+        <v>821</v>
       </c>
       <c r="K128" s="3">
         <v>1</v>
       </c>
       <c r="L128" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M128" s="7">
         <v>1</v>
@@ -12995,14 +12969,17 @@
       <c r="N128" s="7">
         <v>0</v>
       </c>
+      <c r="P128" s="7" t="s">
+        <v>835</v>
+      </c>
       <c r="Q128" s="1" t="s">
-        <v>1175</v>
-      </c>
-      <c r="R128" s="6" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1674</v>
+      </c>
+      <c r="R128" s="1" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>201</v>
       </c>
@@ -13043,27 +13020,27 @@
         <v>75</v>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>1376</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="E130" s="1" t="s">
         <v>1377</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="H130" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="I130" s="1" t="s">
         <v>1378</v>
       </c>
-      <c r="E130" s="1" t="s">
-        <v>1379</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>1335</v>
-      </c>
-      <c r="I130" s="1" t="s">
-        <v>1380</v>
-      </c>
       <c r="J130" s="1" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K130" s="3">
         <v>0</v>
@@ -13084,27 +13061,27 @@
         <v>75</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>253</v>
+        <v>330</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>794</v>
+        <v>763</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>795</v>
+        <v>764</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>101</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>106</v>
@@ -13113,7 +13090,7 @@
         <v>1</v>
       </c>
       <c r="L131" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M131" s="7">
         <v>0</v>
@@ -13121,17 +13098,14 @@
       <c r="N131" s="7">
         <v>0</v>
       </c>
-      <c r="O131" s="7" t="s">
-        <v>1391</v>
-      </c>
       <c r="Q131" s="1" t="s">
-        <v>1175</v>
-      </c>
-      <c r="R131" s="6" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1674</v>
+      </c>
+      <c r="R131" s="1" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>163</v>
       </c>
@@ -13172,24 +13146,27 @@
         <v>357</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>29</v>
+        <v>327</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>254</v>
+        <v>359</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>1494</v>
+        <v>358</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>766</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>101</v>
+        <v>328</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>57</v>
+        <v>329</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>106</v>
@@ -13198,7 +13175,7 @@
         <v>1</v>
       </c>
       <c r="L133" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M133" s="7">
         <v>0</v>
@@ -13207,39 +13184,33 @@
         <v>0</v>
       </c>
       <c r="Q133" s="1" t="s">
-        <v>1498</v>
-      </c>
-      <c r="R133" s="6" t="s">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1674</v>
+      </c>
+      <c r="R133" s="1" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>226</v>
+        <v>1390</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>255</v>
+        <v>1391</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>1495</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>796</v>
+        <v>1392</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>797</v>
+        <v>1432</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>228</v>
+        <v>1393</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>229</v>
+        <v>1394</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>106</v>
+        <v>1395</v>
       </c>
       <c r="K134" s="3">
         <v>1</v>
@@ -13248,19 +13219,19 @@
         <v>0</v>
       </c>
       <c r="M134" s="7">
-        <v>1</v>
-      </c>
-      <c r="N134" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O134" s="7" t="s">
+        <v>1389</v>
       </c>
       <c r="Q134" s="1" t="s">
-        <v>1498</v>
+        <v>1175</v>
       </c>
       <c r="R134" s="6" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>166</v>
       </c>
@@ -13301,27 +13272,27 @@
         <v>283</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>1774</v>
+        <v>1762</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>1776</v>
+        <v>1764</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>1777</v>
+        <v>1765</v>
       </c>
       <c r="K136" s="3">
         <v>0</v>
@@ -13342,27 +13313,27 @@
         <v>75</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="E137" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="I137" s="1" t="s">
         <v>1344</v>
       </c>
-      <c r="C137" s="1" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>1389</v>
-      </c>
-      <c r="H137" s="1" t="s">
+      <c r="J137" s="1" t="s">
         <v>1335</v>
-      </c>
-      <c r="I137" s="1" t="s">
-        <v>1346</v>
-      </c>
-      <c r="J137" s="1" t="s">
-        <v>1337</v>
       </c>
       <c r="K137" s="3">
         <v>0</v>
@@ -13383,7 +13354,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>30</v>
       </c>
@@ -13427,7 +13398,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>576</v>
       </c>
@@ -13468,27 +13439,24 @@
         <v>575</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>1300</v>
+        <v>1445</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1301</v>
+        <v>1446</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1302</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>1493</v>
+        <v>1447</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>1303</v>
+        <v>1448</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>1304</v>
+        <v>1449</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>106</v>
+        <v>1450</v>
       </c>
       <c r="K140" s="3">
         <v>1</v>
@@ -13503,45 +13471,42 @@
         <v>0</v>
       </c>
       <c r="Q140" s="1" t="s">
-        <v>1498</v>
+        <v>1451</v>
       </c>
       <c r="R140" s="6" t="s">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>1300</v>
+        <v>197</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1306</v>
+        <v>902</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1307</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>1492</v>
+        <v>212</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>1567</v>
-      </c>
-      <c r="G141" t="s">
-        <v>1566</v>
+        <v>896</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>903</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>1308</v>
+        <v>202</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>1304</v>
+        <v>204</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>1305</v>
+        <v>203</v>
       </c>
       <c r="K141" s="3">
         <v>1</v>
       </c>
       <c r="L141" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M141" s="7">
         <v>0</v>
@@ -13549,34 +13514,37 @@
       <c r="N141" s="7">
         <v>0</v>
       </c>
+      <c r="O141" s="7" t="s">
+        <v>1389</v>
+      </c>
       <c r="Q141" s="1" t="s">
-        <v>1498</v>
+        <v>1175</v>
       </c>
       <c r="R141" s="6" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>1296</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="E142" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="C142" s="1" t="s">
-        <v>1298</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>1299</v>
-      </c>
       <c r="H142" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="J142" s="1" t="s">
         <v>1288</v>
-      </c>
-      <c r="I142" s="1" t="s">
-        <v>1289</v>
-      </c>
-      <c r="J142" s="1" t="s">
-        <v>1290</v>
       </c>
       <c r="K142" s="3">
         <v>1</v>
@@ -13597,27 +13565,27 @@
         <v>75</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>1246</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="E143" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>1248</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>1249</v>
-      </c>
       <c r="H143" s="1" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="I143" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="J143" s="1" t="s">
         <v>1243</v>
-      </c>
-      <c r="J143" s="1" t="s">
-        <v>1245</v>
       </c>
       <c r="K143" s="3">
         <v>0</v>
@@ -13638,27 +13606,27 @@
         <v>75</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E144" s="1" t="s">
         <v>1275</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>1276</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>1277</v>
-      </c>
       <c r="H144" s="1" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="K144" s="3">
         <v>0</v>
@@ -13676,30 +13644,24 @@
         <v>75</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>31</v>
+        <v>1521</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>257</v>
+        <v>1522</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>801</v>
+        <v>1523</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>101</v>
+        <v>1524</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>35</v>
+        <v>1525</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>106</v>
+        <v>1526</v>
       </c>
       <c r="K145" s="3">
         <v>1</v>
@@ -13712,56 +13674,59 @@
       </c>
       <c r="N145" s="7">
         <v>0</v>
-      </c>
-      <c r="O145" s="7" t="s">
-        <v>1391</v>
       </c>
       <c r="Q145" s="1" t="s">
         <v>1175</v>
       </c>
       <c r="R145" s="6" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>252</v>
+        <v>198</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1179</v>
+        <v>910</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1180</v>
+        <v>215</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>1162</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="K146" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L146" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M146" s="7">
         <v>0</v>
       </c>
       <c r="N146" s="7">
         <v>0</v>
+      </c>
+      <c r="P146" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="Q146" s="1" t="s">
         <v>1175</v>
       </c>
       <c r="R146" s="6" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>169</v>
       </c>
@@ -13802,7 +13767,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>383</v>
       </c>
@@ -13840,51 +13805,54 @@
         <v>75</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>82</v>
+        <v>1229</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>258</v>
+        <v>1230</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>49</v>
+        <v>1231</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>803</v>
+        <v>1614</v>
+      </c>
+      <c r="G149" t="s">
+        <v>1613</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>101</v>
+        <v>1232</v>
       </c>
       <c r="I149" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="K149" s="3">
+        <v>1</v>
+      </c>
+      <c r="L149" s="3">
+        <v>1</v>
+      </c>
+      <c r="M149" s="7">
+        <v>1</v>
+      </c>
+      <c r="N149" s="7">
+        <v>0</v>
+      </c>
+      <c r="P149" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="J149" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K149" s="3">
-        <v>0</v>
-      </c>
-      <c r="L149" s="3">
-        <v>0</v>
-      </c>
-      <c r="M149" s="7">
-        <v>0</v>
-      </c>
-      <c r="N149" s="7">
-        <v>0</v>
       </c>
       <c r="Q149" s="1" t="s">
         <v>1175</v>
       </c>
       <c r="R149" s="6" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>172</v>
       </c>
@@ -13925,24 +13893,24 @@
         <v>283</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>1181</v>
+        <v>852</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1182</v>
+        <v>853</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1538</v>
+        <v>854</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>1183</v>
+        <v>848</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>1184</v>
+        <v>856</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>1185</v>
+        <v>850</v>
       </c>
       <c r="K151" s="3">
         <v>1</v>
@@ -13960,33 +13928,39 @@
         <v>1175</v>
       </c>
       <c r="R151" s="6" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>1539</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>1525</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>1540</v>
+      <c r="F152" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>855</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>1542</v>
+        <v>858</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>1544</v>
+        <v>856</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>1545</v>
+        <v>850</v>
       </c>
       <c r="K152" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L152" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M152" s="7">
         <v>0</v>
@@ -13995,71 +13969,77 @@
         <v>0</v>
       </c>
       <c r="Q152" s="1" t="s">
-        <v>1454</v>
-      </c>
-      <c r="R152" s="1" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1175</v>
+      </c>
+      <c r="R152" s="6" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>1539</v>
+        <v>201</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1526</v>
+        <v>864</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1541</v>
+        <v>220</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>868</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>1543</v>
+        <v>202</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>1544</v>
+        <v>204</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>1545</v>
+        <v>203</v>
       </c>
       <c r="K153" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L153" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M153" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N153" s="7">
         <v>0</v>
       </c>
       <c r="Q153" s="1" t="s">
-        <v>1454</v>
-      </c>
-      <c r="R153" s="1" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1175</v>
+      </c>
+      <c r="R153" s="6" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B154" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H154" s="1" t="s">
         <v>1186</v>
       </c>
-      <c r="C154" s="1" t="s">
-        <v>1187</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>1190</v>
-      </c>
-      <c r="H154" s="1" t="s">
-        <v>1188</v>
-      </c>
       <c r="I154" s="1" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="K154" s="3">
         <v>1</v>
@@ -14077,30 +14057,30 @@
         <v>222</v>
       </c>
       <c r="R154" s="6" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="I155" s="1" t="s">
         <v>1486</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>1487</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>1488</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>1489</v>
-      </c>
-      <c r="H155" s="1" t="s">
-        <v>1480</v>
-      </c>
-      <c r="I155" s="1" t="s">
-        <v>1490</v>
-      </c>
       <c r="J155" s="1" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="K155" s="3">
         <v>0</v>
@@ -14115,108 +14095,103 @@
         <v>0</v>
       </c>
       <c r="O155" s="7" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="Q155" s="1"/>
       <c r="R155" s="6"/>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A156" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D156" s="4"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
-      <c r="H156" s="4" t="s">
+    <row r="156" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K156" s="3">
+        <v>1</v>
+      </c>
+      <c r="L156" s="3">
+        <v>0</v>
+      </c>
+      <c r="M156" s="7">
+        <v>1</v>
+      </c>
+      <c r="N156" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q156" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="R156" s="6" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="H157" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I156" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J156" s="4" t="s">
+      <c r="I157" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J157" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="K156" s="5">
-        <v>1</v>
-      </c>
-      <c r="L156" s="5">
-        <v>0</v>
-      </c>
-      <c r="M156" s="8">
-        <v>0</v>
-      </c>
-      <c r="N156" s="8">
-        <v>0</v>
-      </c>
-      <c r="O156" s="8"/>
-      <c r="P156" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="Q156" s="1" t="s">
-        <v>1454</v>
-      </c>
-      <c r="R156" s="1" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A157" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D157" s="4"/>
-      <c r="E157" s="4"/>
-      <c r="F157" s="4" t="s">
-        <v>804</v>
-      </c>
-      <c r="G157" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="H157" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I157" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J157" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K157" s="5">
-        <v>1</v>
-      </c>
-      <c r="L157" s="5">
-        <v>0</v>
-      </c>
-      <c r="M157" s="8">
-        <v>1</v>
-      </c>
-      <c r="N157" s="8">
-        <v>0</v>
-      </c>
-      <c r="O157" s="8"/>
-      <c r="P157" s="8" t="s">
-        <v>561</v>
+      <c r="K157" s="3">
+        <v>1</v>
+      </c>
+      <c r="L157" s="3">
+        <v>0</v>
+      </c>
+      <c r="M157" s="7">
+        <v>0</v>
+      </c>
+      <c r="N157" s="7">
+        <v>0</v>
+      </c>
+      <c r="O157" s="7" t="s">
+        <v>1389</v>
       </c>
       <c r="Q157" s="1" t="s">
-        <v>1454</v>
-      </c>
-      <c r="R157" s="1" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1175</v>
+      </c>
+      <c r="R157" s="6" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>174</v>
       </c>
@@ -14257,33 +14232,36 @@
         <v>283</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>1411</v>
+        <v>31</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1412</v>
+        <v>257</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>1413</v>
+        <v>48</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>800</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>1484</v>
+        <v>801</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>1403</v>
+        <v>101</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>1414</v>
+        <v>35</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>1405</v>
+        <v>106</v>
       </c>
       <c r="K159" s="3">
         <v>1</v>
       </c>
       <c r="L159" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M159" s="7">
         <v>0</v>
@@ -14292,19 +14270,16 @@
         <v>0</v>
       </c>
       <c r="O159" s="7" t="s">
-        <v>1391</v>
-      </c>
-      <c r="P159" s="7" t="s">
-        <v>1546</v>
+        <v>1389</v>
       </c>
       <c r="Q159" s="1" t="s">
         <v>1175</v>
       </c>
       <c r="R159" s="6" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>83</v>
       </c>
@@ -14351,7 +14326,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>732</v>
       </c>
@@ -14398,7 +14373,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>176</v>
       </c>
@@ -14439,7 +14414,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>84</v>
       </c>
@@ -14453,7 +14428,7 @@
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
       <c r="G163" s="4" t="s">
-        <v>1645</v>
+        <v>1639</v>
       </c>
       <c r="H163" s="4" t="s">
         <v>101</v>
@@ -14477,7 +14452,7 @@
         <v>0</v>
       </c>
       <c r="O163" s="7" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="P163" s="8"/>
       <c r="Q163" s="4" t="s">
@@ -14487,7 +14462,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>247</v>
       </c>
@@ -14535,7 +14510,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>178</v>
       </c>
@@ -14576,27 +14551,27 @@
         <v>283</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>1271</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="E166" s="1" t="s">
         <v>1272</v>
       </c>
-      <c r="C166" s="1" t="s">
-        <v>1273</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>1274</v>
-      </c>
       <c r="H166" s="1" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="K166" s="3">
         <v>0</v>
@@ -14617,7 +14592,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>293</v>
       </c>
@@ -14661,7 +14636,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>297</v>
       </c>
@@ -14702,27 +14677,24 @@
         <v>306</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>85</v>
+        <v>252</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>265</v>
+        <v>1177</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>1496</v>
+        <v>1178</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>57</v>
+        <v>251</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>105</v>
+        <v>246</v>
       </c>
       <c r="K169" s="3">
         <v>1</v>
@@ -14736,17 +14708,14 @@
       <c r="N169" s="7">
         <v>0</v>
       </c>
-      <c r="P169" s="7" t="s">
-        <v>565</v>
-      </c>
       <c r="Q169" s="1" t="s">
-        <v>1498</v>
+        <v>1175</v>
       </c>
       <c r="R169" s="6" t="s">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>437</v>
       </c>
@@ -14787,30 +14756,27 @@
         <v>75</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>1497</v>
+        <v>49</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>106</v>
@@ -14822,39 +14788,36 @@
         <v>0</v>
       </c>
       <c r="M171" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N171" s="7">
         <v>0</v>
       </c>
-      <c r="P171" s="7" t="s">
-        <v>565</v>
-      </c>
       <c r="Q171" s="1" t="s">
-        <v>1498</v>
+        <v>1175</v>
       </c>
       <c r="R171" s="6" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>1744</v>
+        <v>1732</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>1745</v>
+        <v>1733</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>1746</v>
+        <v>1734</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>1747</v>
+        <v>1735</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>1748</v>
+        <v>1736</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>1749</v>
+        <v>1737</v>
       </c>
       <c r="K172" s="3">
         <v>0</v>
@@ -14875,7 +14838,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>569</v>
       </c>
@@ -14916,27 +14879,27 @@
         <v>575</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>1250</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="E174" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I174" s="1" t="s">
         <v>1251</v>
       </c>
-      <c r="C174" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>1283</v>
-      </c>
-      <c r="H174" s="1" t="s">
-        <v>1242</v>
-      </c>
-      <c r="I174" s="1" t="s">
-        <v>1253</v>
-      </c>
       <c r="J174" s="1" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="K174" s="3">
         <v>0</v>
@@ -14957,27 +14920,27 @@
         <v>75</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>1238</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="E175" s="1" t="s">
         <v>1239</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="H175" s="1" t="s">
         <v>1240</v>
       </c>
-      <c r="E175" s="1" t="s">
+      <c r="I175" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="H175" s="1" t="s">
-        <v>1242</v>
-      </c>
-      <c r="I175" s="1" t="s">
+      <c r="J175" s="1" t="s">
         <v>1243</v>
-      </c>
-      <c r="J175" s="1" t="s">
-        <v>1245</v>
       </c>
       <c r="K175" s="3">
         <v>0</v>
@@ -14998,7 +14961,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>453</v>
       </c>
@@ -15039,7 +15002,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>485</v>
       </c>
@@ -15077,7 +15040,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>374</v>
       </c>
@@ -15123,7 +15086,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>237</v>
       </c>
@@ -15161,13 +15124,13 @@
         <v>0</v>
       </c>
       <c r="Q179" s="1" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="R179" s="1" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>237</v>
       </c>
@@ -15208,31 +15171,31 @@
         <v>75</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="B181" s="1" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>1205</v>
-      </c>
       <c r="F181" s="1" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="I181" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="J181" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="J181" s="1" t="s">
-        <v>1211</v>
-      </c>
       <c r="K181" s="3">
         <v>0</v>
       </c>
@@ -15243,92 +15206,101 @@
         <v>0</v>
       </c>
       <c r="Q181" s="1" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="R181" s="1" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="S181" s="1"/>
     </row>
-    <row r="182" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>1203</v>
+        <v>1179</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1206</v>
+        <v>1180</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>1207</v>
+        <v>1532</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>1208</v>
+        <v>1181</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>1210</v>
+        <v>1182</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>1217</v>
+        <v>1183</v>
       </c>
       <c r="K182" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L182" s="3">
         <v>0</v>
       </c>
       <c r="M182" s="7">
+        <v>0</v>
+      </c>
+      <c r="N182" s="7">
         <v>0</v>
       </c>
       <c r="Q182" s="1" t="s">
         <v>1175</v>
       </c>
       <c r="R182" s="6" t="s">
-        <v>1176</v>
+        <v>1786</v>
       </c>
       <c r="S182" s="1"/>
     </row>
-    <row r="183" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>1203</v>
+        <v>1409</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1213</v>
+        <v>1410</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>1214</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>1218</v>
+        <v>1411</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>1215</v>
+        <v>1480</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>1216</v>
+        <v>1401</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>1210</v>
+        <v>1412</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>1211</v>
+        <v>1403</v>
       </c>
       <c r="K183" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L183" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M183" s="7">
         <v>0</v>
+      </c>
+      <c r="N183" s="7">
+        <v>0</v>
+      </c>
+      <c r="O183" s="7" t="s">
+        <v>1389</v>
+      </c>
+      <c r="P183" s="7" t="s">
+        <v>1540</v>
       </c>
       <c r="Q183" s="1" t="s">
         <v>1175</v>
       </c>
       <c r="R183" s="6" t="s">
-        <v>1177</v>
+        <v>1786</v>
       </c>
       <c r="S183" s="1"/>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>513</v>
       </c>
@@ -15366,89 +15338,83 @@
         <v>75</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>1415</v>
-      </c>
-      <c r="B185" s="9" t="s">
-        <v>1439</v>
+        <v>1201</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>1204</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>1438</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>1415</v>
-      </c>
-      <c r="G185" s="1" t="s">
-        <v>1417</v>
+        <v>1205</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>1403</v>
+        <v>1206</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>1418</v>
+        <v>1208</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>1405</v>
+        <v>1215</v>
       </c>
       <c r="K185" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L185" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M185" s="7">
         <v>0</v>
       </c>
       <c r="Q185" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="R185" s="1" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1175</v>
+      </c>
+      <c r="R185" s="6" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>1436</v>
+        <v>1201</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1437</v>
+        <v>1211</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>1416</v>
+        <v>1212</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>1216</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>1485</v>
+        <v>1213</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>1440</v>
+        <v>1214</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>1441</v>
+        <v>1208</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>1442</v>
+        <v>1209</v>
       </c>
       <c r="K186" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L186" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M186" s="7">
         <v>0</v>
       </c>
-      <c r="O186" s="7" t="s">
-        <v>1391</v>
-      </c>
       <c r="Q186" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="R186" s="1" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1175</v>
+      </c>
+      <c r="R186" s="6" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>514</v>
       </c>
@@ -15486,71 +15452,71 @@
         <v>75</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>1425</v>
-      </c>
-      <c r="B188" s="9" t="s">
-        <v>1445</v>
+        <v>88</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>1443</v>
+        <v>98</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>1425</v>
+        <v>767</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>1427</v>
+        <v>768</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>1403</v>
+        <v>101</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>1418</v>
+        <v>35</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>1405</v>
+        <v>246</v>
       </c>
       <c r="K188" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L188" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M188" s="7">
         <v>0</v>
       </c>
+      <c r="N188" s="7">
+        <v>0</v>
+      </c>
       <c r="Q188" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="R188" s="1" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1175</v>
+      </c>
+      <c r="R188" s="6" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>1444</v>
-      </c>
-      <c r="B189" s="9" t="s">
-        <v>1426</v>
+        <v>1562</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>1563</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>1446</v>
-      </c>
-      <c r="G189" s="1" t="s">
-        <v>1501</v>
+        <v>1569</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>1440</v>
+        <v>1564</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>1441</v>
+        <v>1565</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>1442</v>
+        <v>1566</v>
       </c>
       <c r="K189" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L189" s="3">
         <v>1</v>
@@ -15558,17 +15524,17 @@
       <c r="M189" s="7">
         <v>0</v>
       </c>
-      <c r="O189" s="7" t="s">
-        <v>1391</v>
+      <c r="N189" s="7">
+        <v>0</v>
       </c>
       <c r="Q189" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="R189" s="1" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1175</v>
+      </c>
+      <c r="R189" s="6" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>515</v>
       </c>
@@ -15606,7 +15572,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>516</v>
       </c>
@@ -15644,27 +15610,27 @@
         <v>75</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>1347</v>
       </c>
-      <c r="B192" s="9" t="s">
+      <c r="E192" s="1" t="s">
         <v>1348</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="H192" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="I192" s="1" t="s">
         <v>1349</v>
       </c>
-      <c r="E192" s="1" t="s">
-        <v>1350</v>
-      </c>
-      <c r="H192" s="1" t="s">
+      <c r="J192" s="1" t="s">
         <v>1335</v>
-      </c>
-      <c r="I192" s="1" t="s">
-        <v>1351</v>
-      </c>
-      <c r="J192" s="1" t="s">
-        <v>1337</v>
       </c>
       <c r="K192" s="3">
         <v>0</v>
@@ -15682,7 +15648,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>517</v>
       </c>
@@ -15720,7 +15686,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>518</v>
       </c>
@@ -15758,30 +15724,30 @@
         <v>75</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>1723</v>
+        <v>1711</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>1724</v>
+        <v>1712</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>1725</v>
+        <v>1713</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>1723</v>
+        <v>1711</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>1726</v>
+        <v>1714</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>1727</v>
+        <v>1715</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>1728</v>
+        <v>1716</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>1729</v>
+        <v>1717</v>
       </c>
       <c r="K195" s="3">
         <v>0</v>
@@ -15796,7 +15762,7 @@
         <v>0</v>
       </c>
       <c r="O195" s="7" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="Q195" s="1" t="s">
         <v>75</v>
@@ -15805,7 +15771,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>519</v>
       </c>
@@ -15843,7 +15809,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>520</v>
       </c>
@@ -15881,7 +15847,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>521</v>
       </c>
@@ -15919,7 +15885,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>522</v>
       </c>
@@ -15957,7 +15923,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>523</v>
       </c>
@@ -15995,27 +15961,27 @@
         <v>75</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>1326</v>
       </c>
-      <c r="B201" s="9" t="s">
+      <c r="E201" s="1" t="s">
         <v>1327</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="H201" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="I201" s="1" t="s">
         <v>1328</v>
       </c>
-      <c r="E201" s="1" t="s">
-        <v>1329</v>
-      </c>
-      <c r="H201" s="1" t="s">
+      <c r="J201" s="1" t="s">
         <v>1319</v>
-      </c>
-      <c r="I201" s="1" t="s">
-        <v>1330</v>
-      </c>
-      <c r="J201" s="1" t="s">
-        <v>1321</v>
       </c>
       <c r="K201" s="3">
         <v>0</v>
@@ -16033,7 +15999,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>524</v>
       </c>
@@ -16071,30 +16037,30 @@
         <v>75</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>1764</v>
+        <v>1752</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>1765</v>
+        <v>1753</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>1766</v>
+        <v>1754</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>1764</v>
+        <v>1752</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>1769</v>
+        <v>1757</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>1767</v>
+        <v>1755</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>1768</v>
+        <v>1756</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
       <c r="K203" s="3">
         <v>0</v>
@@ -16109,7 +16075,7 @@
         <v>0</v>
       </c>
       <c r="O203" s="7" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="Q203" s="1" t="s">
         <v>222</v>
@@ -16118,27 +16084,27 @@
         <v>75</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C204" s="1" t="s">
         <v>1338</v>
       </c>
-      <c r="B204" s="9" t="s">
+      <c r="E204" s="1" t="s">
         <v>1339</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="H204" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="I204" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="E204" s="1" t="s">
-        <v>1341</v>
-      </c>
-      <c r="H204" s="1" t="s">
+      <c r="J204" s="1" t="s">
         <v>1335</v>
-      </c>
-      <c r="I204" s="1" t="s">
-        <v>1342</v>
-      </c>
-      <c r="J204" s="1" t="s">
-        <v>1337</v>
       </c>
       <c r="K204" s="3">
         <v>0</v>
@@ -16156,30 +16122,30 @@
         <v>75</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>86</v>
+        <v>1562</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>743</v>
+        <v>1567</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>745</v>
+        <v>1568</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>754</v>
+        <v>1562</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>760</v>
+        <v>1570</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>101</v>
+        <v>1571</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>103</v>
+        <v>1565</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>106</v>
+        <v>1566</v>
       </c>
       <c r="K205" s="3">
         <v>1</v>
@@ -16188,19 +16154,19 @@
         <v>0</v>
       </c>
       <c r="M205" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N205" s="7">
         <v>0</v>
       </c>
       <c r="Q205" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="R205" s="1" t="s">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1175</v>
+      </c>
+      <c r="R205" s="6" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>181</v>
       </c>
@@ -16241,36 +16207,30 @@
         <v>75</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>87</v>
+        <v>1585</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>324</v>
+        <v>1586</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F207" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="G207" s="1" t="s">
-        <v>761</v>
+        <v>1587</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>101</v>
+        <v>1578</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>50</v>
+        <v>1591</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>106</v>
+        <v>1580</v>
       </c>
       <c r="K207" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L207" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M207" s="7">
         <v>0</v>
@@ -16279,57 +16239,57 @@
         <v>0</v>
       </c>
       <c r="Q207" s="1" t="s">
-        <v>1454</v>
-      </c>
-      <c r="R207" s="1" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1175</v>
+      </c>
+      <c r="R207" s="6" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>87</v>
+        <v>1585</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>325</v>
+        <v>1590</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>97</v>
+        <v>1592</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>756</v>
+        <v>1588</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>762</v>
+        <v>1589</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>102</v>
+        <v>1573</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>50</v>
+        <v>1591</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>106</v>
+        <v>1580</v>
       </c>
       <c r="K208" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L208" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M208" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N208" s="7">
         <v>0</v>
       </c>
       <c r="Q208" s="1" t="s">
-        <v>1454</v>
-      </c>
-      <c r="R208" s="1" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1175</v>
+      </c>
+      <c r="R208" s="6" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>180</v>
       </c>
@@ -16373,30 +16333,30 @@
         <v>75</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>25</v>
+        <v>1694</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>330</v>
+        <v>1695</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>27</v>
+        <v>1696</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>763</v>
+        <v>1697</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>764</v>
+        <v>1698</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>101</v>
+        <v>1699</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>62</v>
+        <v>1700</v>
       </c>
       <c r="J210" s="1" t="s">
-        <v>106</v>
+        <v>1701</v>
       </c>
       <c r="K210" s="3">
         <v>1</v>
@@ -16410,34 +16370,34 @@
       <c r="N210" s="7">
         <v>0</v>
       </c>
+      <c r="O210" s="7" t="s">
+        <v>1702</v>
+      </c>
       <c r="Q210" s="1" t="s">
-        <v>1685</v>
+        <v>1703</v>
       </c>
       <c r="R210" s="1" t="s">
-        <v>1682</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>327</v>
+        <v>29</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>359</v>
+        <v>254</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="F211" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="G211" s="1" t="s">
-        <v>766</v>
+        <v>45</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>1490</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>328</v>
+        <v>101</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>329</v>
+        <v>57</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>106</v>
@@ -16446,7 +16406,7 @@
         <v>1</v>
       </c>
       <c r="L211" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M211" s="7">
         <v>0</v>
@@ -16455,13 +16415,13 @@
         <v>0</v>
       </c>
       <c r="Q211" s="1" t="s">
-        <v>1685</v>
-      </c>
-      <c r="R211" s="1" t="s">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1494</v>
+      </c>
+      <c r="R211" s="6" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>185</v>
       </c>
@@ -16504,49 +16464,52 @@
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>338</v>
+        <v>255</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>98</v>
+        <v>227</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>1491</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>767</v>
+        <v>796</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>768</v>
+        <v>797</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>101</v>
+        <v>228</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>35</v>
+        <v>229</v>
       </c>
       <c r="J213" s="1" t="s">
-        <v>246</v>
+        <v>106</v>
       </c>
       <c r="K213" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L213" s="3">
         <v>0</v>
       </c>
       <c r="M213" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N213" s="7">
         <v>0</v>
       </c>
       <c r="Q213" s="1" t="s">
-        <v>1175</v>
+        <v>1494</v>
       </c>
       <c r="R213" s="6" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>187</v>
       </c>
@@ -16587,27 +16550,27 @@
         <v>75</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C215" s="1" t="s">
         <v>1322</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="E215" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="I215" s="1" t="s">
         <v>1323</v>
       </c>
-      <c r="C215" s="1" t="s">
-        <v>1324</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>1386</v>
-      </c>
-      <c r="H215" s="1" t="s">
+      <c r="J215" s="1" t="s">
         <v>1319</v>
-      </c>
-      <c r="I215" s="1" t="s">
-        <v>1325</v>
-      </c>
-      <c r="J215" s="1" t="s">
-        <v>1321</v>
       </c>
       <c r="K215" s="3">
         <v>0</v>
@@ -16628,7 +16591,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>26</v>
       </c>
@@ -16669,13 +16632,13 @@
         <v>567</v>
       </c>
       <c r="Q216" s="1" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="R216" s="1" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>189</v>
       </c>
@@ -16716,27 +16679,27 @@
         <v>75</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C218" s="1" t="s">
         <v>1381</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="E218" s="1" t="s">
         <v>1382</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="H218" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="I218" s="1" t="s">
         <v>1383</v>
       </c>
-      <c r="E218" s="1" t="s">
-        <v>1384</v>
-      </c>
-      <c r="H218" s="1" t="s">
-        <v>1335</v>
-      </c>
-      <c r="I218" s="1" t="s">
-        <v>1385</v>
-      </c>
       <c r="J218" s="1" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K218" s="3">
         <v>0</v>
@@ -16754,27 +16717,27 @@
         <v>75</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C219" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="E219" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="H219" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I219" s="1" t="s">
         <v>1280</v>
       </c>
-      <c r="E219" s="1" t="s">
-        <v>1281</v>
-      </c>
-      <c r="H219" s="1" t="s">
-        <v>1242</v>
-      </c>
-      <c r="I219" s="1" t="s">
-        <v>1282</v>
-      </c>
       <c r="J219" s="1" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="K219" s="3">
         <v>0</v>
@@ -16792,7 +16755,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>89</v>
       </c>
@@ -16830,7 +16793,7 @@
         <v>0</v>
       </c>
       <c r="O220" s="7" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="P220" s="7" t="s">
         <v>568</v>
@@ -16842,50 +16805,50 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="J221" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="K221" s="3">
+        <v>0</v>
+      </c>
+      <c r="L221" s="3">
+        <v>0</v>
+      </c>
+      <c r="M221" s="7">
+        <v>0</v>
+      </c>
+      <c r="N221" s="7">
+        <v>0</v>
+      </c>
+      <c r="O221" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="P221" s="7" t="s">
         <v>1621</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>1622</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>1623</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>1646</v>
-      </c>
-      <c r="H221" s="1" t="s">
-        <v>1624</v>
-      </c>
-      <c r="I221" s="1" t="s">
-        <v>1625</v>
-      </c>
-      <c r="J221" s="1" t="s">
-        <v>1626</v>
-      </c>
-      <c r="K221" s="3">
-        <v>0</v>
-      </c>
-      <c r="L221" s="3">
-        <v>0</v>
-      </c>
-      <c r="M221" s="7">
-        <v>0</v>
-      </c>
-      <c r="N221" s="7">
-        <v>0</v>
-      </c>
-      <c r="O221" s="7" t="s">
-        <v>1463</v>
-      </c>
-      <c r="P221" s="7" t="s">
-        <v>1627</v>
       </c>
       <c r="Q221" s="1"/>
       <c r="R221"/>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>191</v>
       </c>
@@ -16928,22 +16891,25 @@
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>1568</v>
+        <v>1298</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1569</v>
+        <v>1299</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>1575</v>
+        <v>1300</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>1489</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>1570</v>
+        <v>1301</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>1571</v>
+        <v>1302</v>
       </c>
       <c r="J223" s="1" t="s">
-        <v>1572</v>
+        <v>106</v>
       </c>
       <c r="K223" s="3">
         <v>1</v>
@@ -16958,57 +16924,60 @@
         <v>0</v>
       </c>
       <c r="Q223" s="1" t="s">
-        <v>1175</v>
+        <v>1494</v>
       </c>
       <c r="R223" s="6" t="s">
-        <v>1176</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>1568</v>
+        <v>1298</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1573</v>
+        <v>1304</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>1574</v>
+        <v>1305</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>1488</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>1568</v>
-      </c>
-      <c r="G224" s="1" t="s">
-        <v>1576</v>
+        <v>1561</v>
+      </c>
+      <c r="G224" t="s">
+        <v>1560</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>1577</v>
+        <v>1306</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>1571</v>
+        <v>1302</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>1572</v>
+        <v>1303</v>
       </c>
       <c r="K224" s="3">
         <v>1</v>
       </c>
       <c r="L224" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M224" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N224" s="7">
         <v>0</v>
       </c>
       <c r="Q224" s="1" t="s">
-        <v>1175</v>
+        <v>1494</v>
       </c>
       <c r="R224" s="6" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>538</v>
       </c>
@@ -17049,7 +17018,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
         <v>284</v>
       </c>
@@ -17093,24 +17062,24 @@
         <v>291</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>1581</v>
+        <v>1575</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>1582</v>
+        <v>1576</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>1583</v>
+        <v>1577</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>1584</v>
+        <v>1578</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>1585</v>
+        <v>1579</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>1586</v>
+        <v>1580</v>
       </c>
       <c r="K227" s="3">
         <v>0</v>
@@ -17131,30 +17100,30 @@
         <v>408</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>1581</v>
+        <v>1575</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>1589</v>
+        <v>1583</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>1581</v>
+        <v>1575</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>1588</v>
+        <v>1582</v>
       </c>
       <c r="H228" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="I228" s="1" t="s">
         <v>1579</v>
       </c>
-      <c r="I228" s="1" t="s">
-        <v>1585</v>
-      </c>
       <c r="J228" s="1" t="s">
-        <v>1586</v>
+        <v>1580</v>
       </c>
       <c r="K228" s="3">
         <v>0</v>
@@ -17172,10 +17141,10 @@
         <v>407</v>
       </c>
       <c r="R228" s="1" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>539</v>
       </c>
@@ -17218,28 +17187,31 @@
     </row>
     <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>1591</v>
+        <v>85</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>1592</v>
+        <v>265</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1593</v>
+        <v>95</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>1492</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>1584</v>
+        <v>101</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>1597</v>
+        <v>57</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>1586</v>
+        <v>105</v>
       </c>
       <c r="K230" s="3">
         <v>1</v>
       </c>
       <c r="L230" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M230" s="7">
         <v>0</v>
@@ -17247,43 +17219,49 @@
       <c r="N230" s="7">
         <v>0</v>
       </c>
+      <c r="P230" s="7" t="s">
+        <v>565</v>
+      </c>
       <c r="Q230" s="1" t="s">
-        <v>1175</v>
+        <v>1494</v>
       </c>
       <c r="R230" s="6" t="s">
-        <v>1176</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>1591</v>
+        <v>85</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1596</v>
+        <v>267</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>1598</v>
+        <v>55</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>1493</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>1594</v>
+        <v>812</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>1595</v>
+        <v>814</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>1579</v>
+        <v>102</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>1597</v>
+        <v>57</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>1586</v>
+        <v>106</v>
       </c>
       <c r="K231" s="3">
         <v>1</v>
       </c>
       <c r="L231" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M231" s="7">
         <v>1</v>
@@ -17291,14 +17269,17 @@
       <c r="N231" s="7">
         <v>0</v>
       </c>
+      <c r="P231" s="7" t="s">
+        <v>565</v>
+      </c>
       <c r="Q231" s="1" t="s">
-        <v>1175</v>
+        <v>1494</v>
       </c>
       <c r="R231" s="6" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>540</v>
       </c>
@@ -17339,33 +17320,33 @@
         <v>75</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>1503</v>
+        <v>1656</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1505</v>
+        <v>1657</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>1504</v>
+        <v>1658</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>1503</v>
+        <v>1660</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>1506</v>
+        <v>1659</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>1507</v>
+        <v>1661</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>1508</v>
+        <v>1662</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>1509</v>
+        <v>1663</v>
       </c>
       <c r="K233" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L233" s="3">
         <v>1</v>
@@ -17376,34 +17357,43 @@
       <c r="N233" s="7">
         <v>0</v>
       </c>
+      <c r="P233" s="7" t="s">
+        <v>1000</v>
+      </c>
       <c r="Q233" s="1" t="s">
-        <v>1454</v>
-      </c>
-      <c r="R233" s="1" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1664</v>
+      </c>
+      <c r="R233" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="234" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>1503</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>1510</v>
+        <v>1413</v>
+      </c>
+      <c r="B234" s="9" t="s">
+        <v>1437</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>1511</v>
+        <v>1436</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>1415</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>1512</v>
+        <v>1401</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>1508</v>
+        <v>1416</v>
       </c>
       <c r="J234" s="1" t="s">
-        <v>1513</v>
+        <v>1403</v>
       </c>
       <c r="K234" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L234" s="3">
         <v>1</v>
@@ -17411,154 +17401,163 @@
       <c r="M234" s="7">
         <v>0</v>
       </c>
-      <c r="N234" s="7">
-        <v>1</v>
-      </c>
       <c r="Q234" s="1" t="s">
-        <v>1454</v>
+        <v>744</v>
       </c>
       <c r="R234" s="1" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="235" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>1514</v>
+        <v>1434</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1515</v>
+        <v>1435</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>1516</v>
+        <v>1414</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>1481</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>1507</v>
+        <v>1438</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>1508</v>
+        <v>1439</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>1513</v>
+        <v>1440</v>
       </c>
       <c r="K235" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L235" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M235" s="7">
         <v>0</v>
       </c>
-      <c r="N235" s="7">
-        <v>0</v>
+      <c r="O235" s="7" t="s">
+        <v>1389</v>
       </c>
       <c r="Q235" s="1" t="s">
-        <v>1454</v>
+        <v>744</v>
       </c>
       <c r="R235" s="1" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="236" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>1514</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>1517</v>
+        <v>1423</v>
+      </c>
+      <c r="B236" s="9" t="s">
+        <v>1443</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>1518</v>
+        <v>1441</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>1425</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>1512</v>
+        <v>1401</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>1508</v>
+        <v>1416</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>1513</v>
+        <v>1403</v>
       </c>
       <c r="K236" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L236" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M236" s="7">
         <v>0</v>
       </c>
-      <c r="N236" s="7">
-        <v>0</v>
-      </c>
       <c r="Q236" s="1" t="s">
-        <v>1454</v>
+        <v>744</v>
       </c>
       <c r="R236" s="1" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="237" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>1519</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>1520</v>
+        <v>1442</v>
+      </c>
+      <c r="B237" s="9" t="s">
+        <v>1424</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>1521</v>
+        <v>1444</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>1495</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>1507</v>
+        <v>1438</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>1508</v>
+        <v>1439</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>1513</v>
+        <v>1440</v>
       </c>
       <c r="K237" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L237" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M237" s="7">
         <v>0</v>
       </c>
-      <c r="N237" s="7">
-        <v>0</v>
+      <c r="O237" s="7" t="s">
+        <v>1389</v>
       </c>
       <c r="Q237" s="1" t="s">
-        <v>1454</v>
+        <v>744</v>
       </c>
       <c r="R237" s="1" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="238" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>1519</v>
+        <v>86</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>1522</v>
+        <v>743</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>1523</v>
+        <v>745</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>754</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>1524</v>
+        <v>760</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>1512</v>
+        <v>101</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>1508</v>
+        <v>103</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>1513</v>
+        <v>106</v>
       </c>
       <c r="K238" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L238" s="3">
         <v>0</v>
@@ -17570,14 +17569,23 @@
         <v>0</v>
       </c>
       <c r="Q238" s="1" t="s">
-        <v>1454</v>
+        <v>744</v>
       </c>
       <c r="R238" s="1" t="s">
-        <v>1456</v>
+        <v>1668</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R238" xr:uid="{E32DF10C-15DA-439C-8F38-F097EAD9909F}"/>
+  <autoFilter ref="A1:R238" xr:uid="{E32DF10C-15DA-439C-8F38-F097EAD9909F}">
+    <filterColumn colId="16">
+      <filters>
+        <filter val="gtja_pluto"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:R238">
+      <sortCondition descending="1" ref="Q1:Q238"/>
+    </sortState>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A20:R226">
     <sortCondition ref="H1:H238"/>
   </sortState>
@@ -17649,7 +17657,7 @@
         <v>1167</v>
       </c>
       <c r="L1" t="s">
-        <v>1553</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -17681,7 +17689,7 @@
         <v>1168</v>
       </c>
       <c r="L2" t="s">
-        <v>1554</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -17800,19 +17808,19 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>1656</v>
+        <v>1650</v>
       </c>
       <c r="B7" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1658</v>
+        <v>1652</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1659</v>
+        <v>1653</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1660</v>
+        <v>1654</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
@@ -17820,7 +17828,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="K7" t="s">
-        <v>1661</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -17909,19 +17917,19 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="B11" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
@@ -18051,42 +18059,42 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>1751</v>
+        <v>1739</v>
       </c>
       <c r="B16" t="s">
-        <v>1752</v>
+        <v>1740</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1753</v>
+        <v>1741</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1754</v>
+        <v>1742</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1755</v>
+        <v>1743</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>1756</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>1633</v>
+        <v>1627</v>
       </c>
       <c r="B17" t="s">
-        <v>1634</v>
+        <v>1628</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1630</v>
+        <v>1624</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1631</v>
+        <v>1625</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1635</v>
+        <v>1629</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -18123,19 +18131,19 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>1548</v>
+        <v>1542</v>
       </c>
       <c r="B19" t="s">
-        <v>1549</v>
+        <v>1543</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1550</v>
+        <v>1544</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1551</v>
+        <v>1545</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="F19" s="3">
         <v>1</v>
@@ -18295,7 +18303,7 @@
         <v>0.3</v>
       </c>
       <c r="K24" t="s">
-        <v>1552</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -18351,7 +18359,7 @@
         <v>916</v>
       </c>
       <c r="H26" t="s">
-        <v>1672</v>
+        <v>1665</v>
       </c>
       <c r="I26">
         <v>0.77</v>
@@ -18481,7 +18489,7 @@
         <v>919</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1636</v>
+        <v>1630</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>920</v>
@@ -18498,26 +18506,26 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>1677</v>
+        <v>1669</v>
       </c>
       <c r="B32" t="s">
-        <v>1678</v>
+        <v>1670</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1679</v>
+        <v>1671</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1680</v>
+        <v>1672</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1681</v>
+        <v>1673</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="1"/>
       <c r="K32" t="s">
-        <v>1679</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -18601,7 +18609,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>1555</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -18635,19 +18643,19 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="B37" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>1309</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>1311</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>1313</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
@@ -18659,7 +18667,7 @@
         <v>0.77</v>
       </c>
       <c r="K37" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -18742,19 +18750,19 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>1191</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D41" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>1193</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>1194</v>
-      </c>
       <c r="E41" s="1" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="F41" s="3">
         <v>1</v>
@@ -18766,7 +18774,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -18821,7 +18829,7 @@
         <v>368</v>
       </c>
       <c r="H43" t="s">
-        <v>1750</v>
+        <v>1738</v>
       </c>
       <c r="I43">
         <v>0.77</v>
@@ -18945,10 +18953,10 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B48" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>1118</v>
@@ -18957,36 +18965,36 @@
         <v>1119</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>1555</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>1223</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D49" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>1227</v>
-      </c>
       <c r="F49" s="3">
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>1555</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -19009,7 +19017,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>1555</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -19038,7 +19046,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>1556</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -19218,19 +19226,19 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>1628</v>
+        <v>1622</v>
       </c>
       <c r="B58" t="s">
-        <v>1629</v>
+        <v>1623</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1630</v>
+        <v>1624</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1631</v>
+        <v>1625</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1632</v>
+        <v>1626</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -19268,19 +19276,19 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>1599</v>
+        <v>1593</v>
       </c>
       <c r="B60" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1601</v>
+        <v>1595</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1602</v>
+        <v>1596</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1603</v>
+        <v>1597</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
@@ -19292,24 +19300,24 @@
         <v>0.53900000000000003</v>
       </c>
       <c r="K60" t="s">
-        <v>1604</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>1533</v>
+        <v>1527</v>
       </c>
       <c r="B61" t="s">
-        <v>1535</v>
+        <v>1529</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>623</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1536</v>
+        <v>1530</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1537</v>
+        <v>1531</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -19321,24 +19329,24 @@
         <v>0.53900000000000003</v>
       </c>
       <c r="K61" t="s">
-        <v>1534</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>1591</v>
+        <v>1585</v>
       </c>
       <c r="B62" t="s">
-        <v>1605</v>
+        <v>1599</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1606</v>
+        <v>1600</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1607</v>
+        <v>1601</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1608</v>
+        <v>1602</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -19350,7 +19358,7 @@
         <v>0.38500000000000001</v>
       </c>
       <c r="K62" t="s">
-        <v>1604</v>
+        <v>1598</v>
       </c>
     </row>
   </sheetData>
@@ -19365,7 +19373,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -19547,13 +19555,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1578</v>
+        <v>1572</v>
       </c>
       <c r="B13" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
       <c r="C13" t="s">
-        <v>1580</v>
+        <v>1574</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
@@ -19743,16 +19751,16 @@
     </row>
     <row r="27" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="B27" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="C27" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="D27" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20180,4 +20188,300 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C7BCC5-5148-4494-9561-55AEE60F03A9}">
+  <dimension ref="A1:A56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>